--- a/SMS-Product Backlog.xlsx
+++ b/SMS-Product Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinesh.s\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinesh.s\Desktop\POC-sms-documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BB0C90-43DE-419E-9BEC-C8044AF5D802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039F6EE6-A7C5-41EB-9D7B-6A6EDF8083DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
   <si>
     <t>#</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>Final PoC Project- SMS (Secure My Seat)</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
   </si>
 </sst>
 </file>
@@ -1285,10 +1291,10 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:D1"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1458,7 +1464,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="H8" s="3">
         <v>13</v>
@@ -1481,7 +1487,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="H9" s="3">
         <v>13</v>
@@ -1504,7 +1510,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3">
         <v>13</v>
@@ -1527,7 +1533,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="H11" s="3">
         <v>13</v>
@@ -1548,7 +1554,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1569,7 +1575,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="H13" s="3">
         <v>13</v>
@@ -1590,7 +1596,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1611,7 +1617,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="H15" s="3">
         <v>13</v>
@@ -1656,7 +1662,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1668,7 +1674,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1680,7 +1686,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1692,7 +1698,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1704,7 +1710,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1716,7 +1722,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1728,7 +1734,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1740,7 +1746,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1752,7 +1758,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1764,7 +1770,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1776,7 +1782,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1788,7 +1794,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1832,7 +1838,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1844,7 +1850,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1856,7 +1862,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1868,7 +1874,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1880,7 +1886,7 @@
         <v>18</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1892,7 +1898,7 @@
         <v>18</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1904,7 +1910,7 @@
         <v>18</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1960,7 +1966,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1972,7 +1978,7 @@
         <v>18</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1984,7 +1990,7 @@
         <v>18</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1996,7 +2002,7 @@
         <v>18</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2008,7 +2014,7 @@
         <v>18</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.3">
@@ -2020,7 +2026,7 @@
         <v>18</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.3">
@@ -2032,7 +2038,7 @@
         <v>18</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.3">
@@ -2044,7 +2050,7 @@
         <v>18</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.3">
@@ -2080,7 +2086,7 @@
         <v>18</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.3">
@@ -2188,7 +2194,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
